--- a/작업일지 && 졸작자료/작업일지(권세진)/24년 작업일지/권세진-5.6.7 계획표.xlsx
+++ b/작업일지 && 졸작자료/작업일지(권세진)/24년 작업일지/권세진-5.6.7 계획표.xlsx
@@ -19,39 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>5월 3주차(5.22~)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 계획표</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t xml:space="preserve">
 게임룸 마무리 즉시 더미 클라이언트와의 연동을 통한 동접자 테스트 시작
 다중 접속 테스트 및 서버에서 담당하는 기능 들 추가(포탑, 총알 충전소 등등)</x:t>
   </x:si>
   <x:si>
-    <x:t>5월 4주차(5.29~)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 재시작 처리 및 미비된 동기화 완료 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월 1주차</x:t>
+    <x:t>DB연동 작업 및 회원가입 작업 시작(6월 첫번째 주)</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">DB연동 마무리 및 게임룸 설계 시작(6월 마지막 주)
 </x:t>
   </x:si>
   <x:si>
-    <x:t>DB연동 작업 및 회원가입 작업 시작(6월 첫번째 주)</x:t>
+    <x:t>5월 4주차(5.29~)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5월 3주차(5.22~)</x:t>
   </x:si>
   <x:si>
     <x:t>5월 계획표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 1주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 계획표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 재시작 처리 및 미비된 동기화 완료 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임룸 설계 및 미비한 동기화 작업 수행</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -140,7 +143,7 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left>
         <x:color auto="1"/>
       </x:left>
       <x:right>
@@ -157,10 +160,24 @@
       <x:left>
         <x:color auto="1"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -174,7 +191,7 @@
       <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -191,7 +208,7 @@
       <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -199,13 +216,27 @@
       <x:left>
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top>
         <x:color auto="1"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -216,38 +247,10 @@
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -292,6 +295,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -357,6 +373,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -370,19 +399,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -416,19 +432,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -448,40 +451,40 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1186,14 +1189,14 @@
   <x:dimension ref="A1:U10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A9" activeCellId="0" sqref="A9:M9"/>
+      <x:selection activeCell="A10" activeCellId="0" sqref="A10:M10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="4:21">
       <x:c r="D1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1" s="3"/>
       <x:c r="F1" s="3"/>
@@ -1203,16 +1206,16 @@
       <x:c r="K1" s="2"/>
       <x:c r="L1" s="2"/>
       <x:c r="M1" s="2"/>
-      <x:c r="N1" s="18" t="s">
-        <x:v>1</x:v>
+      <x:c r="N1" s="4" t="s">
+        <x:v>8</x:v>
       </x:c>
-      <x:c r="O1" s="18"/>
-      <x:c r="P1" s="18"/>
-      <x:c r="Q1" s="18"/>
-      <x:c r="R1" s="18"/>
-      <x:c r="S1" s="18"/>
-      <x:c r="T1" s="18"/>
-      <x:c r="U1" s="18"/>
+      <x:c r="O1" s="4"/>
+      <x:c r="P1" s="4"/>
+      <x:c r="Q1" s="4"/>
+      <x:c r="R1" s="4"/>
+      <x:c r="S1" s="4"/>
+      <x:c r="T1" s="4"/>
+      <x:c r="U1" s="4"/>
     </x:row>
     <x:row r="2" spans="4:21">
       <x:c r="D2" s="3"/>
@@ -1224,31 +1227,31 @@
       <x:c r="K2" s="2"/>
       <x:c r="L2" s="2"/>
       <x:c r="M2" s="2"/>
-      <x:c r="N2" s="18"/>
-      <x:c r="O2" s="18"/>
-      <x:c r="P2" s="18"/>
-      <x:c r="Q2" s="18"/>
-      <x:c r="R2" s="18"/>
-      <x:c r="S2" s="18"/>
-      <x:c r="T2" s="18"/>
-      <x:c r="U2" s="18"/>
+      <x:c r="N2" s="4"/>
+      <x:c r="O2" s="4"/>
+      <x:c r="P2" s="4"/>
+      <x:c r="Q2" s="4"/>
+      <x:c r="R2" s="4"/>
+      <x:c r="S2" s="4"/>
+      <x:c r="T2" s="4"/>
+      <x:c r="U2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:21">
-      <x:c r="A3" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="A3" s="5" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="B3" s="4"/>
-      <x:c r="C3" s="4"/>
-      <x:c r="D3" s="4"/>
-      <x:c r="E3" s="4"/>
-      <x:c r="F3" s="4"/>
-      <x:c r="G3" s="4"/>
-      <x:c r="H3" s="4"/>
-      <x:c r="I3" s="4"/>
-      <x:c r="J3" s="4"/>
-      <x:c r="K3" s="4"/>
-      <x:c r="L3" s="4"/>
-      <x:c r="M3" s="4"/>
+      <x:c r="B3" s="5"/>
+      <x:c r="C3" s="5"/>
+      <x:c r="D3" s="5"/>
+      <x:c r="E3" s="5"/>
+      <x:c r="F3" s="5"/>
+      <x:c r="G3" s="5"/>
+      <x:c r="H3" s="5"/>
+      <x:c r="I3" s="5"/>
+      <x:c r="J3" s="5"/>
+      <x:c r="K3" s="5"/>
+      <x:c r="L3" s="5"/>
+      <x:c r="M3" s="5"/>
       <x:c r="N3" s="1"/>
       <x:c r="O3" s="1"/>
       <x:c r="P3" s="1"/>
@@ -1259,23 +1262,23 @@
       <x:c r="U3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:21" ht="49.799999999999997" customHeight="1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>4</x:v>
+      <x:c r="A4" s="6" t="s">
+        <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="5"/>
-      <x:c r="C4" s="5"/>
-      <x:c r="D4" s="5"/>
-      <x:c r="E4" s="5"/>
-      <x:c r="F4" s="5"/>
-      <x:c r="G4" s="5"/>
-      <x:c r="H4" s="5"/>
-      <x:c r="I4" s="5"/>
-      <x:c r="J4" s="5"/>
-      <x:c r="K4" s="5"/>
-      <x:c r="L4" s="5"/>
-      <x:c r="M4" s="5"/>
-      <x:c r="N4" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="B4" s="6"/>
+      <x:c r="C4" s="6"/>
+      <x:c r="D4" s="6"/>
+      <x:c r="E4" s="6"/>
+      <x:c r="F4" s="6"/>
+      <x:c r="G4" s="6"/>
+      <x:c r="H4" s="6"/>
+      <x:c r="I4" s="6"/>
+      <x:c r="J4" s="6"/>
+      <x:c r="K4" s="6"/>
+      <x:c r="L4" s="6"/>
+      <x:c r="M4" s="6"/>
+      <x:c r="N4" s="18" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="7"/>
       <x:c r="P4" s="7"/>
@@ -1286,21 +1289,21 @@
       <x:c r="U4" s="8"/>
     </x:row>
     <x:row r="5" spans="1:21">
-      <x:c r="A5" s="4" t="s">
+      <x:c r="A5" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" s="4"/>
-      <x:c r="C5" s="4"/>
-      <x:c r="D5" s="4"/>
-      <x:c r="E5" s="4"/>
-      <x:c r="F5" s="4"/>
-      <x:c r="G5" s="4"/>
-      <x:c r="H5" s="4"/>
-      <x:c r="I5" s="4"/>
-      <x:c r="J5" s="4"/>
-      <x:c r="K5" s="4"/>
-      <x:c r="L5" s="4"/>
-      <x:c r="M5" s="4"/>
+      <x:c r="B5" s="5"/>
+      <x:c r="C5" s="5"/>
+      <x:c r="D5" s="5"/>
+      <x:c r="E5" s="5"/>
+      <x:c r="F5" s="5"/>
+      <x:c r="G5" s="5"/>
+      <x:c r="H5" s="5"/>
+      <x:c r="I5" s="5"/>
+      <x:c r="J5" s="5"/>
+      <x:c r="K5" s="5"/>
+      <x:c r="L5" s="5"/>
+      <x:c r="M5" s="5"/>
       <x:c r="N5" s="9"/>
       <x:c r="O5" s="10"/>
       <x:c r="P5" s="10"/>
@@ -1311,21 +1314,21 @@
       <x:c r="U5" s="11"/>
     </x:row>
     <x:row r="6" spans="1:21" ht="56.399999999999999" customHeight="1">
-      <x:c r="A6" s="5" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="6" t="s">
+        <x:v>1</x:v>
       </x:c>
-      <x:c r="B6" s="5"/>
-      <x:c r="C6" s="5"/>
-      <x:c r="D6" s="5"/>
-      <x:c r="E6" s="5"/>
-      <x:c r="F6" s="5"/>
-      <x:c r="G6" s="5"/>
-      <x:c r="H6" s="5"/>
-      <x:c r="I6" s="5"/>
-      <x:c r="J6" s="5"/>
-      <x:c r="K6" s="5"/>
-      <x:c r="L6" s="5"/>
-      <x:c r="M6" s="5"/>
+      <x:c r="B6" s="6"/>
+      <x:c r="C6" s="6"/>
+      <x:c r="D6" s="6"/>
+      <x:c r="E6" s="6"/>
+      <x:c r="F6" s="6"/>
+      <x:c r="G6" s="6"/>
+      <x:c r="H6" s="6"/>
+      <x:c r="I6" s="6"/>
+      <x:c r="J6" s="6"/>
+      <x:c r="K6" s="6"/>
+      <x:c r="L6" s="6"/>
+      <x:c r="M6" s="6"/>
       <x:c r="N6" s="9"/>
       <x:c r="O6" s="10"/>
       <x:c r="P6" s="10"/>
@@ -1336,21 +1339,21 @@
       <x:c r="U6" s="11"/>
     </x:row>
     <x:row r="7" spans="1:21">
-      <x:c r="A7" s="4" t="s">
+      <x:c r="A7" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B7" s="4"/>
-      <x:c r="C7" s="4"/>
-      <x:c r="D7" s="4"/>
-      <x:c r="E7" s="4"/>
-      <x:c r="F7" s="4"/>
-      <x:c r="G7" s="4"/>
-      <x:c r="H7" s="4"/>
-      <x:c r="I7" s="4"/>
-      <x:c r="J7" s="4"/>
-      <x:c r="K7" s="4"/>
-      <x:c r="L7" s="4"/>
-      <x:c r="M7" s="4"/>
+      <x:c r="B7" s="5"/>
+      <x:c r="C7" s="5"/>
+      <x:c r="D7" s="5"/>
+      <x:c r="E7" s="5"/>
+      <x:c r="F7" s="5"/>
+      <x:c r="G7" s="5"/>
+      <x:c r="H7" s="5"/>
+      <x:c r="I7" s="5"/>
+      <x:c r="J7" s="5"/>
+      <x:c r="K7" s="5"/>
+      <x:c r="L7" s="5"/>
+      <x:c r="M7" s="5"/>
       <x:c r="N7" s="9"/>
       <x:c r="O7" s="10"/>
       <x:c r="P7" s="10"/>
@@ -1361,8 +1364,8 @@
       <x:c r="U7" s="11"/>
     </x:row>
     <x:row r="8" spans="1:21" ht="54.600000000000001" customHeight="1">
-      <x:c r="A8" s="5" t="s">
-        <x:v>7</x:v>
+      <x:c r="A8" s="6" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="15"/>
       <x:c r="C8" s="15"/>
@@ -1387,7 +1390,7 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="16" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="16"/>
       <x:c r="C9" s="16"/>
@@ -1403,7 +1406,9 @@
       <x:c r="M9" s="16"/>
     </x:row>
     <x:row r="10" spans="1:13" ht="61.200000000000003" customHeight="1">
-      <x:c r="A10" s="17"/>
+      <x:c r="A10" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="B10" s="17"/>
       <x:c r="C10" s="17"/>
       <x:c r="D10" s="17"/>

--- a/작업일지 && 졸작자료/작업일지(권세진)/24년 작업일지/권세진-5.6.7 계획표.xlsx
+++ b/작업일지 && 졸작자료/작업일지(권세진)/24년 작업일지/권세진-5.6.7 계획표.xlsx
@@ -19,42 +19,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>6월 마지막주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임룸 설계 작업 마무리</x:t>
+  </x:si>
   <x:si>
     <x:t xml:space="preserve">
 게임룸 마무리 즉시 더미 클라이언트와의 연동을 통한 동접자 테스트 시작
-다중 접속 테스트 및 서버에서 담당하는 기능 들 추가(포탑, 총알 충전소 등등)</x:t>
+</x:t>
   </x:si>
   <x:si>
-    <x:t>DB연동 작업 및 회원가입 작업 시작(6월 첫번째 주)</x:t>
+    <x:t>6월 2주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5월 계획표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월 계획표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월 1주차</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">DB연동 마무리 및 게임룸 설계 시작(6월 마지막 주)
 </x:t>
   </x:si>
   <x:si>
-    <x:t>5월 4주차(5.29~)</x:t>
+    <x:t>DB연동 작업 및 회원가입 작업 시작(6월 첫번째 주)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">게임룸 설계(로비서버 구축) 및 미비한 동기화 작업 수행
+태준이가 만든 총알 충전소 등등 서버에서 관리하기 위한 작업 수행 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 재시작 처리 및 미비된 동기화 완료 처리</x:t>
   </x:si>
   <x:si>
     <x:t>5월 3주차(5.22~)</x:t>
   </x:si>
   <x:si>
-    <x:t>5월 계획표</x:t>
+    <x:t>5월 4주차(5.29~)</x:t>
   </x:si>
   <x:si>
-    <x:t>6월 1주차</x:t>
+    <x:t>6월 3주차</x:t>
   </x:si>
   <x:si>
-    <x:t>6월 2주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월 계획표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 재시작 처리 및 미비된 동기화 완료 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임룸 설계 및 미비한 동기화 작업 수행</x:t>
+    <x:t>게임룸 설계 작업 수행</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -260,7 +273,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -477,6 +490,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -484,6 +523,32 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1186,17 +1251,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:U10"/>
+  <x:dimension ref="A1:U19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A10" activeCellId="0" sqref="A10:M10"/>
+      <x:selection activeCell="A17" activeCellId="0" sqref="A17:M19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="4:21">
       <x:c r="D1" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="3"/>
       <x:c r="F1" s="3"/>
@@ -1207,7 +1272,7 @@
       <x:c r="L1" s="2"/>
       <x:c r="M1" s="2"/>
       <x:c r="N1" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O1" s="4"/>
       <x:c r="P1" s="4"/>
@@ -1238,7 +1303,7 @@
     </x:row>
     <x:row r="3" spans="1:21">
       <x:c r="A3" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="5"/>
       <x:c r="C3" s="5"/>
@@ -1263,7 +1328,7 @@
     </x:row>
     <x:row r="4" spans="1:21" ht="49.799999999999997" customHeight="1">
       <x:c r="A4" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="6"/>
       <x:c r="C4" s="6"/>
@@ -1277,8 +1342,8 @@
       <x:c r="K4" s="6"/>
       <x:c r="L4" s="6"/>
       <x:c r="M4" s="6"/>
-      <x:c r="N4" s="18" t="s">
-        <x:v>0</x:v>
+      <x:c r="N4" s="20" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O4" s="7"/>
       <x:c r="P4" s="7"/>
@@ -1290,7 +1355,7 @@
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="5"/>
       <x:c r="C5" s="5"/>
@@ -1315,7 +1380,7 @@
     </x:row>
     <x:row r="6" spans="1:21" ht="56.399999999999999" customHeight="1">
       <x:c r="A6" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="6"/>
       <x:c r="C6" s="6"/>
@@ -1364,8 +1429,8 @@
       <x:c r="U7" s="11"/>
     </x:row>
     <x:row r="8" spans="1:21" ht="54.600000000000001" customHeight="1">
-      <x:c r="A8" s="6" t="s">
-        <x:v>2</x:v>
+      <x:c r="A8" s="22" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="15"/>
       <x:c r="C8" s="15"/>
@@ -1390,7 +1455,7 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="16"/>
       <x:c r="C9" s="16"/>
@@ -1406,8 +1471,8 @@
       <x:c r="M9" s="16"/>
     </x:row>
     <x:row r="10" spans="1:13" ht="61.200000000000003" customHeight="1">
-      <x:c r="A10" s="17" t="s">
-        <x:v>10</x:v>
+      <x:c r="A10" s="21" t="s">
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="17"/>
       <x:c r="C10" s="17"/>
@@ -1422,8 +1487,151 @@
       <x:c r="L10" s="17"/>
       <x:c r="M10" s="17"/>
     </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="16"/>
+      <x:c r="C11" s="16"/>
+      <x:c r="D11" s="16"/>
+      <x:c r="E11" s="16"/>
+      <x:c r="F11" s="16"/>
+      <x:c r="G11" s="16"/>
+      <x:c r="H11" s="16"/>
+      <x:c r="I11" s="16"/>
+      <x:c r="J11" s="16"/>
+      <x:c r="K11" s="16"/>
+      <x:c r="L11" s="16"/>
+      <x:c r="M11" s="16"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B12" s="18"/>
+      <x:c r="C12" s="18"/>
+      <x:c r="D12" s="18"/>
+      <x:c r="E12" s="18"/>
+      <x:c r="F12" s="18"/>
+      <x:c r="G12" s="18"/>
+      <x:c r="H12" s="18"/>
+      <x:c r="I12" s="18"/>
+      <x:c r="J12" s="18"/>
+      <x:c r="K12" s="18"/>
+      <x:c r="L12" s="18"/>
+      <x:c r="M12" s="18"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="19"/>
+      <x:c r="B13" s="19"/>
+      <x:c r="C13" s="19"/>
+      <x:c r="D13" s="19"/>
+      <x:c r="E13" s="19"/>
+      <x:c r="F13" s="19"/>
+      <x:c r="G13" s="19"/>
+      <x:c r="H13" s="19"/>
+      <x:c r="I13" s="19"/>
+      <x:c r="J13" s="19"/>
+      <x:c r="K13" s="19"/>
+      <x:c r="L13" s="19"/>
+      <x:c r="M13" s="19"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="19"/>
+      <x:c r="B14" s="19"/>
+      <x:c r="C14" s="19"/>
+      <x:c r="D14" s="19"/>
+      <x:c r="E14" s="19"/>
+      <x:c r="F14" s="19"/>
+      <x:c r="G14" s="19"/>
+      <x:c r="H14" s="19"/>
+      <x:c r="I14" s="19"/>
+      <x:c r="J14" s="19"/>
+      <x:c r="K14" s="19"/>
+      <x:c r="L14" s="19"/>
+      <x:c r="M14" s="19"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="19"/>
+      <x:c r="B15" s="19"/>
+      <x:c r="C15" s="19"/>
+      <x:c r="D15" s="19"/>
+      <x:c r="E15" s="19"/>
+      <x:c r="F15" s="19"/>
+      <x:c r="G15" s="19"/>
+      <x:c r="H15" s="19"/>
+      <x:c r="I15" s="19"/>
+      <x:c r="J15" s="19"/>
+      <x:c r="K15" s="19"/>
+      <x:c r="L15" s="19"/>
+      <x:c r="M15" s="19"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="16" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="16"/>
+      <x:c r="C16" s="16"/>
+      <x:c r="D16" s="16"/>
+      <x:c r="E16" s="16"/>
+      <x:c r="F16" s="16"/>
+      <x:c r="G16" s="16"/>
+      <x:c r="H16" s="16"/>
+      <x:c r="I16" s="16"/>
+      <x:c r="J16" s="16"/>
+      <x:c r="K16" s="16"/>
+      <x:c r="L16" s="16"/>
+      <x:c r="M16" s="16"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B17" s="18"/>
+      <x:c r="C17" s="18"/>
+      <x:c r="D17" s="18"/>
+      <x:c r="E17" s="18"/>
+      <x:c r="F17" s="18"/>
+      <x:c r="G17" s="18"/>
+      <x:c r="H17" s="18"/>
+      <x:c r="I17" s="18"/>
+      <x:c r="J17" s="18"/>
+      <x:c r="K17" s="18"/>
+      <x:c r="L17" s="18"/>
+      <x:c r="M17" s="18"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="19"/>
+      <x:c r="B18" s="19"/>
+      <x:c r="C18" s="19"/>
+      <x:c r="D18" s="19"/>
+      <x:c r="E18" s="19"/>
+      <x:c r="F18" s="19"/>
+      <x:c r="G18" s="19"/>
+      <x:c r="H18" s="19"/>
+      <x:c r="I18" s="19"/>
+      <x:c r="J18" s="19"/>
+      <x:c r="K18" s="19"/>
+      <x:c r="L18" s="19"/>
+      <x:c r="M18" s="19"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="A19" s="19"/>
+      <x:c r="B19" s="19"/>
+      <x:c r="C19" s="19"/>
+      <x:c r="D19" s="19"/>
+      <x:c r="E19" s="19"/>
+      <x:c r="F19" s="19"/>
+      <x:c r="G19" s="19"/>
+      <x:c r="H19" s="19"/>
+      <x:c r="I19" s="19"/>
+      <x:c r="J19" s="19"/>
+      <x:c r="K19" s="19"/>
+      <x:c r="L19" s="19"/>
+      <x:c r="M19" s="19"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="11">
+  <x:mergeCells count="15">
     <x:mergeCell ref="D1:I2"/>
     <x:mergeCell ref="N1:U2"/>
     <x:mergeCell ref="A3:M3"/>
@@ -1435,6 +1643,10 @@
     <x:mergeCell ref="A8:M8"/>
     <x:mergeCell ref="A9:M9"/>
     <x:mergeCell ref="A10:M10"/>
+    <x:mergeCell ref="A11:M11"/>
+    <x:mergeCell ref="A12:M15"/>
+    <x:mergeCell ref="A16:M16"/>
+    <x:mergeCell ref="A17:M19"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
